--- a/HW4/assg4.xlsx
+++ b/HW4/assg4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5579D6-540A-4EBF-BB07-DE365C8A154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E436F1-BD42-4EA5-A36B-D91E09ED1C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -808,7 +808,7 @@
   <dimension ref="A1:N1016"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
